--- a/src/assignment3/gmm_chi_square_results.xlsx
+++ b/src/assignment3/gmm_chi_square_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,6 +380,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>10000</t>
         </is>
       </c>
@@ -397,6 +402,9 @@
         <v>0.0001071105742003195</v>
       </c>
       <c r="E2">
+        <v>0.07346949558463686</v>
+      </c>
+      <c r="F2">
         <v>1.132824282417572E-11</v>
       </c>
     </row>
@@ -413,6 +421,9 @@
         <v>0.8311704095417624</v>
       </c>
       <c r="E3">
+        <v>0.4544675732419261</v>
+      </c>
+      <c r="F3">
         <v>6.851569463827355E-11</v>
       </c>
     </row>
@@ -429,23 +440,48 @@
         <v>0.8311704095417624</v>
       </c>
       <c r="E4">
+        <v>3.414950934951276E-19</v>
+      </c>
+      <c r="F4">
         <v>4.043150100603806E-17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.07346949558463686</v>
+      </c>
+      <c r="C5">
+        <v>0.4544675732419261</v>
+      </c>
+      <c r="D5">
+        <v>3.414950934951276E-19</v>
+      </c>
+      <c r="F5">
+        <v>1.886843907325803E-08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1.132824282417572E-11</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>6.851569463827355E-11</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4.043150100603806E-17</v>
+      </c>
+      <c r="E6">
+        <v>1.886843907325803E-08</v>
       </c>
     </row>
   </sheetData>
